--- a/biology/Botanique/Daphne_laureola/Daphne_laureola.xlsx
+++ b/biology/Botanique/Daphne_laureola/Daphne_laureola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le daphné lauréole, laurier des bois, laurier épurge, laurier purgatif (Daphne laureola L.) est un arbrisseau à tige dressée, à feuilles oblongues, les terminales en rosettes, vernissées, persistantes, de la famille des thyméléacées. Il est parfois appelé auréole.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le daphné lauréole est un arbrisseau de 40 à 150 cm de haut. 
 Les feuilles sont persistantes, alternes mais souvent regroupées au sommet des tiges, coriaces, ovales allongées, à limbe vert foncé, brillant, décurrent.
@@ -546,10 +560,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient des résines (proches de celles des euphorbiacées). Le contact avec les différentes parties peut provoquer des dermites.
-La consommation des fruits entraîne des brûlures de la bouche et du tube digestif et, si les quantités ingérées sont importantes, il y a un risque de convulsions. Le daphné lauréole est de fait considéré comme toxique[1].
+La consommation des fruits entraîne des brûlures de la bouche et du tube digestif et, si les quantités ingérées sont importantes, il y a un risque de convulsions. Le daphné lauréole est de fait considéré comme toxique.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre en France et dans tout le sud-ouest de l'Europe dans les bois sur sol calcaire, en montagne jusqu'à 1 600 m. Il est assez commun.
 </t>
@@ -611,8 +629,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Calendrier républicain
-Dans le calendrier républicain, la lauréole était le nom attribué au 1er jour du mois de pluviôse[2],[3].</t>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, la lauréole était le nom attribué au 1er jour du mois de pluviôse,.</t>
         </is>
       </c>
     </row>
